--- a/8. Nombres.xlsx
+++ b/8. Nombres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Data World/Programas/Excel Básico a Avanzado/Carpeta para compartir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="13_ncr:1_{3750CCE7-6FA0-4AA0-93BB-2327C9039718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A642B802-D2BB-4759-A236-A3A004183353}"/>
+  <xr:revisionPtr revIDLastSave="503" documentId="13_ncr:1_{3750CCE7-6FA0-4AA0-93BB-2327C9039718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A6FA18B-5E8A-4F73-95EC-C42B21CF7B7C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,6 @@
     <sheet name="Indirecto" sheetId="6" r:id="rId5"/>
     <sheet name="Búsqueda" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="A">Indirecto!$H$17:$H$26</definedName>
-    <definedName name="Areas">Indirecto!$H$29:$J$29</definedName>
-    <definedName name="B">Indirecto!$I$17:$I$26</definedName>
-    <definedName name="C_">Indirecto!$J$17:$J$26</definedName>
-    <definedName name="Calificación_Alumnos">'Fórmulas Rápidas'!$B$9:$B$115</definedName>
-    <definedName name="Comercial">Indirecto!$H$30:$H$32</definedName>
-    <definedName name="Comision">Nombres!$C$12</definedName>
-    <definedName name="Compras">Indirecto!$I$30:$I$32</definedName>
-    <definedName name="Contabilidad">Indirecto!$J$30:$J$32</definedName>
-    <definedName name="Costos">Nombres!$C$8</definedName>
-    <definedName name="D">Indirecto!$K$17:$K$26</definedName>
-    <definedName name="Fecha2">'Nombres Rango'!$A$9:$A$39</definedName>
-    <definedName name="Ingresos">Nombres!$B$8</definedName>
-    <definedName name="Mes">Nombres!$B$21:$B$32</definedName>
-    <definedName name="Promedio_">'Fórmulas con Nombres'!$B$26</definedName>
-    <definedName name="Ventas">'Nombres Rango'!$B$9:$B$39</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Finanzas</t>
   </si>
@@ -191,27 +173,6 @@
   </si>
   <si>
     <t>Ventas Sur Enero:</t>
-  </si>
-  <si>
-    <t>RANGOS DE NUMEROS</t>
-  </si>
-  <si>
-    <t>LISTA DERIVADA</t>
-  </si>
-  <si>
-    <t>LISTA DESPLEGABLE</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>C_</t>
   </si>
   <si>
     <t>Compras</t>
@@ -268,7 +229,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,15 +285,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,7 +435,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -525,18 +477,14 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Énfasis4" xfId="3" builtinId="44"/>
@@ -1727,7 +1675,7 @@
   </sheetPr>
   <dimension ref="A7:E32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1742,7 +1690,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1756,20 +1704,17 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28">
+      <c r="A8" s="32"/>
+      <c r="B8" s="27">
         <v>1000</v>
       </c>
       <c r="C8">
         <v>500</v>
       </c>
-      <c r="D8" s="12">
-        <f>Ingresos-Costos</f>
-        <v>500</v>
-      </c>
+      <c r="D8" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1783,77 +1728,47 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
       <c r="C12" s="1">
         <v>0.16</v>
       </c>
-      <c r="D12" s="13">
-        <f>B12*Comision</f>
-        <v>160</v>
-      </c>
-      <c r="E12" s="29">
-        <f>B12*C12</f>
-        <v>160</v>
-      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>1200</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="13">
-        <f>B13*Comision</f>
-        <v>192</v>
-      </c>
-      <c r="E13" s="29">
-        <f>B13*C13</f>
-        <v>0</v>
-      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>3000</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="13">
-        <f>B14*Comision</f>
-        <v>480</v>
-      </c>
-      <c r="E14" s="29">
-        <f>B14*C14</f>
-        <v>0</v>
-      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1500</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="13">
-        <f>B15*Comision</f>
-        <v>240</v>
-      </c>
-      <c r="E15" s="29">
-        <f>B15*C15</f>
-        <v>0</v>
-      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2400</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="13">
-        <f>B16*Comision</f>
-        <v>384</v>
-      </c>
-      <c r="E16" s="29">
-        <f>B16*C16</f>
-        <v>0</v>
-      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
@@ -1870,7 +1785,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
@@ -1881,7 +1796,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="32"/>
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -1989,9 +1904,7 @@
   </sheetPr>
   <dimension ref="A7:B39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2259,8 +2172,8 @@
   </sheetPr>
   <dimension ref="A9:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D23"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,151 +2197,106 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
         <f ca="1">RANDBETWEEN(15,30)</f>
-        <v>19</v>
-      </c>
-      <c r="D10" s="24">
-        <f ca="1">B10-Promedio_</f>
-        <v>-4.7142857142857153</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
         <f t="shared" ref="B11:B23" ca="1" si="0">RANDBETWEEN(15,30)</f>
-        <v>27</v>
-      </c>
-      <c r="D11" s="24">
-        <f ca="1">B11-Promedio_</f>
-        <v>3.2857142857142847</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D12" s="24">
-        <f ca="1">B12-Promedio_</f>
-        <v>2.2857142857142847</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D13" s="24">
-        <f ca="1">B13-Promedio_</f>
-        <v>-0.7142857142857153</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D14" s="24">
-        <f ca="1">B14-Promedio_</f>
-        <v>-4.7142857142857153</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="D15" s="24">
-        <f ca="1">B15-Promedio_</f>
-        <v>3.2857142857142847</v>
-      </c>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D16" s="24">
-        <f ca="1">B16-Promedio_</f>
-        <v>1.2857142857142847</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D17" s="24">
-        <f ca="1">B17-Promedio_</f>
-        <v>1.2857142857142847</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D18" s="24">
-        <f ca="1">B18-Promedio_</f>
-        <v>4.2857142857142847</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D19" s="24">
-        <f ca="1">B19-Promedio_</f>
-        <v>-3.7142857142857153</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D20" s="24">
-        <f ca="1">B20-Promedio_</f>
-        <v>-0.7142857142857153</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D21" s="24">
-        <f ca="1">B21-Promedio_</f>
-        <v>-0.7142857142857153</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D22" s="24">
-        <f ca="1">B22-Promedio_</f>
-        <v>2.2857142857142847</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D23" s="24">
-        <f ca="1">B23-Promedio_</f>
-        <v>-2.7142857142857153</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D23" s="24"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="24">
-        <f ca="1">AVERAGE(B10:B23)</f>
-        <v>23.714285714285715</v>
-      </c>
+      <c r="B26" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2443,8 +2311,8 @@
   </sheetPr>
   <dimension ref="B8:F115"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,10 +2329,7 @@
       <c r="D8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="24">
-        <f ca="1">AVERAGE(Calificación_Alumnos)</f>
-        <v>85.887850467289724</v>
-      </c>
+      <c r="E8" s="24"/>
       <c r="F8" t="s">
         <v>29</v>
       </c>
@@ -2472,15 +2337,12 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
         <f ca="1">RANDBETWEEN(67,100)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="25">
-        <f ca="1">SUM(Calificación_Alumnos)</f>
-        <v>9190</v>
-      </c>
+      <c r="E9" s="25"/>
       <c r="F9" t="s">
         <v>31</v>
       </c>
@@ -2488,15 +2350,12 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
         <f t="shared" ref="B10:B73" ca="1" si="0">RANDBETWEEN(67,100)</f>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="26">
-        <f ca="1">MEDIAN(Calificación_Alumnos)</f>
-        <v>88</v>
-      </c>
+      <c r="E10" s="26"/>
       <c r="F10" t="s">
         <v>33</v>
       </c>
@@ -2509,10 +2368,7 @@
       <c r="D11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="24">
-        <f ca="1">STDEVA(Calificación_Alumnos)</f>
-        <v>9.2280612886586528</v>
-      </c>
+      <c r="E11" s="24"/>
       <c r="F11" t="s">
         <v>35</v>
       </c>
@@ -2520,595 +2376,595 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="17">
         <f t="shared" ref="B74:B115" ca="1" si="1">RANDBETWEEN(67,100)</f>
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
@@ -3120,25 +2976,25 @@
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3152,10 +3008,10 @@
   <sheetPr>
     <tabColor rgb="FF004AAD"/>
   </sheetPr>
-  <dimension ref="B3:K32"/>
+  <dimension ref="E3:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,291 +3021,68 @@
     <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="H15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="I16" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="H17" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H17" s="34">
-        <v>1</v>
-      </c>
-      <c r="I17" s="32">
-        <v>11</v>
-      </c>
-      <c r="J17" s="32">
-        <v>21</v>
-      </c>
-      <c r="K17" s="32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="H18" s="34">
-        <f>H17+1</f>
-        <v>2</v>
-      </c>
-      <c r="I18" s="32">
-        <f>I17+1</f>
-        <v>12</v>
-      </c>
-      <c r="J18" s="32">
-        <f>J17+1</f>
-        <v>22</v>
-      </c>
-      <c r="K18" s="32">
-        <f>K17+1</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H19" s="34">
-        <f t="shared" ref="H19:I26" si="0">H18+1</f>
-        <v>3</v>
-      </c>
-      <c r="I19" s="32">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J19" s="32">
-        <f>J18+1</f>
-        <v>23</v>
-      </c>
-      <c r="K19" s="32">
-        <f>K18+1</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H20" s="34">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I20" s="32">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J20" s="32">
-        <f>J19+1</f>
-        <v>24</v>
-      </c>
-      <c r="K20" s="32">
-        <f>K19+1</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="34">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I21" s="32">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J21" s="32">
-        <f>J20+1</f>
-        <v>25</v>
-      </c>
-      <c r="K21" s="32">
-        <f>K20+1</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H22" s="34">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I22" s="32">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J22" s="32">
-        <f>J21+1</f>
-        <v>26</v>
-      </c>
-      <c r="K22" s="32">
-        <f>K21+1</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H23" s="34">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I23" s="32">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="J23" s="32">
-        <f>J22+1</f>
-        <v>27</v>
-      </c>
-      <c r="K23" s="32">
-        <f>K22+1</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H24" s="34">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I24" s="32">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J24" s="32">
-        <f>J23+1</f>
-        <v>28</v>
-      </c>
-      <c r="K24" s="32">
-        <f>K23+1</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H25" s="34">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I25" s="32">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="J25" s="32">
-        <f>J24+1</f>
-        <v>29</v>
-      </c>
-      <c r="K25" s="32">
-        <f>K24+1</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H26" s="34">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I26" s="32">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J26" s="32">
-        <f>J25+1</f>
-        <v>30</v>
-      </c>
-      <c r="K26" s="32">
-        <f>K25+1</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="35" t="s">
+      <c r="I18" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H30" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="32" t="s">
+      <c r="J18" s="29" t="s">
         <v>54</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H32" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{1434A3B0-17DA-4DF3-890D-6CBB28DA5E3C}">
-      <formula1>$H$16:$K$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{5852037A-560B-48C8-81A0-0C54C15ED01C}">
-      <formula1>INDIRECT($C$16)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29" xr:uid="{52EAF41B-8986-43BA-96B5-197FBAE09A89}">
-      <formula1>Areas</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31" xr:uid="{048EFCCE-CC4A-45AF-87A3-B0862393023C}">
-      <formula1>INDIRECT($F$29)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
